--- a/douzi_0419/test_data/cases.xlsx
+++ b/douzi_0419/test_data/cases.xlsx
@@ -1103,12 +1103,12 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -1318,12 +1318,12 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
